--- a/teaching/traditional_assets/database/data/colombia/colombia_drugs_pharmaceutical.xlsx
+++ b/teaching/traditional_assets/database/data/colombia/colombia_drugs_pharmaceutical.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-24.375</v>
+        <v>-168</v>
       </c>
       <c r="H2">
-        <v>-24.375</v>
+        <v>-168</v>
       </c>
       <c r="I2">
-        <v>-41.44649180050843</v>
+        <v>-121</v>
       </c>
       <c r="J2">
-        <v>-41.44649180050843</v>
+        <v>-121</v>
       </c>
       <c r="K2">
-        <v>-1.969</v>
+        <v>-3.82</v>
       </c>
       <c r="L2">
-        <v>-41.02083333333333</v>
+        <v>-127.3333333333333</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,58 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6.91</v>
+        <v>0.554</v>
       </c>
       <c r="V2">
-        <v>0.396670493685419</v>
+        <v>0.0557344064386318</v>
+      </c>
+      <c r="W2">
+        <v>-0.5701492537313433</v>
       </c>
       <c r="X2">
-        <v>0.106049231956582</v>
+        <v>0.07471565761744819</v>
+      </c>
+      <c r="Y2">
+        <v>-0.6448649113487914</v>
       </c>
       <c r="Z2">
-        <v>0.2067557153257184</v>
+        <v>0.008973975471133711</v>
+      </c>
+      <c r="AA2">
+        <v>-1.085851032007179</v>
       </c>
       <c r="AB2">
-        <v>0.1036542900070064</v>
+        <v>0.07037233853248395</v>
+      </c>
+      <c r="AC2">
+        <v>-1.156223370539663</v>
       </c>
       <c r="AD2">
-        <v>0.234</v>
+        <v>1.12</v>
       </c>
       <c r="AE2">
-        <v>0.2321580321220231</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.4661580321220231</v>
+        <v>1.12</v>
       </c>
       <c r="AG2">
-        <v>-6.443841967877977</v>
+        <v>0.5660000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.02606250214746189</v>
+        <v>0.1012658227848102</v>
       </c>
       <c r="AI2">
-        <v>0.03706680775888489</v>
+        <v>0.2196078431372549</v>
       </c>
       <c r="AJ2">
-        <v>-0.587076274687363</v>
+        <v>0.05387397677517609</v>
       </c>
       <c r="AK2">
-        <v>-1.137250661091199</v>
+        <v>0.1245050593928729</v>
       </c>
       <c r="AL2">
-        <v>0.001</v>
+        <v>0.034</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="AN2">
-        <v>-0.2100538599640934</v>
+        <v>-0.3522012578616353</v>
       </c>
       <c r="AO2">
-        <v>-1999</v>
+        <v>-106.7647058823529</v>
       </c>
       <c r="AP2">
-        <v>5.784418283552943</v>
+        <v>-0.1779874213836478</v>
+      </c>
+      <c r="AQ2">
+        <v>-106.7647058823529</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Medcolcanna Organics Inc. (TSXV:MCCN)</t>
+          <t>Blueberries Medical Corp. (CNSX:BBM)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -701,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-168</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-168</v>
       </c>
       <c r="I3">
-        <v>-16.65482513384176</v>
+        <v>-121</v>
       </c>
       <c r="J3">
-        <v>-16.65482513384176</v>
+        <v>-121</v>
       </c>
       <c r="K3">
-        <v>-0.789</v>
+        <v>-3.82</v>
       </c>
       <c r="L3">
-        <v>-16.4375</v>
+        <v>-127.3333333333333</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,153 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.55</v>
+        <v>0.554</v>
       </c>
       <c r="V3">
-        <v>0.5444785276073619</v>
+        <v>0.0557344064386318</v>
+      </c>
+      <c r="W3">
+        <v>-0.5701492537313433</v>
       </c>
       <c r="X3">
-        <v>0.1080599603035553</v>
+        <v>0.07471565761744819</v>
+      </c>
+      <c r="Y3">
+        <v>-0.6448649113487914</v>
       </c>
       <c r="Z3">
-        <v>0.2067557153257184</v>
+        <v>0.008973975471133711</v>
       </c>
       <c r="AA3">
-        <v>-3.443480284172207</v>
+        <v>-1.085851032007179</v>
       </c>
       <c r="AB3">
-        <v>0.1032887635066854</v>
+        <v>0.07037233853248395</v>
       </c>
       <c r="AC3">
-        <v>-3.546769047678893</v>
+        <v>-1.156223370539663</v>
       </c>
       <c r="AD3">
-        <v>0.231</v>
+        <v>1.12</v>
       </c>
       <c r="AE3">
-        <v>0.2321580321220231</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.4631580321220231</v>
+        <v>1.12</v>
       </c>
       <c r="AG3">
-        <v>-3.086841967877977</v>
+        <v>0.5660000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.06632501083199457</v>
+        <v>0.1012658227848102</v>
       </c>
       <c r="AI3">
-        <v>0.0788601344606898</v>
+        <v>0.2196078431372549</v>
       </c>
       <c r="AJ3">
-        <v>-0.8991260929430651</v>
+        <v>0.05387397677517609</v>
       </c>
       <c r="AK3">
-        <v>-1.328726640717759</v>
+        <v>0.1245050593928729</v>
       </c>
       <c r="AL3">
-        <v>0.001</v>
+        <v>0.034</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="AN3">
-        <v>4.125</v>
+        <v>-0.3522012578616353</v>
       </c>
       <c r="AO3">
-        <v>-809</v>
+        <v>-106.7647058823529</v>
       </c>
       <c r="AP3">
-        <v>-55.12217799782101</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Blueberries Medical Corp. (CNSX:BBM)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Drugs (Pharmaceutical)</t>
-        </is>
-      </c>
-      <c r="K4">
-        <v>-1.18</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>3.36</v>
-      </c>
-      <c r="V4">
-        <v>0.3082568807339449</v>
-      </c>
-      <c r="X4">
-        <v>0.1040385036096088</v>
-      </c>
-      <c r="AB4">
-        <v>0.1040198165073273</v>
-      </c>
-      <c r="AD4">
-        <v>0.003</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.003</v>
-      </c>
-      <c r="AG4">
-        <v>-3.357</v>
-      </c>
-      <c r="AH4">
-        <v>0.0002751536274419884</v>
-      </c>
-      <c r="AI4">
-        <v>0.0004475607936744741</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.4450483892350523</v>
-      </c>
-      <c r="AK4">
-        <v>-1.004187855219862</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>-0.002564102564102564</v>
-      </c>
-      <c r="AP4">
-        <v>2.869230769230769</v>
+        <v>-0.1779874213836478</v>
+      </c>
+      <c r="AQ3">
+        <v>-106.7647058823529</v>
       </c>
     </row>
   </sheetData>
